--- a/SEC/data/StudentData/Fall_2022_Student_Feedback_Responses.xlsx
+++ b/SEC/data/StudentData/Fall_2022_Student_Feedback_Responses.xlsx
@@ -1801,9 +1801,9 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CK81" sqref="CK81"/>
+      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
